--- a/Unity/Assets/Config/Excel/AreaConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AreaConfig.xlsx
@@ -62,7 +62,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>vector2</t>
+    <t>vector3</t>
   </si>
   <si>
     <t>EAreaType</t>
@@ -98,7 +98,7 @@
     <t>在该区域可以获得水元素</t>
   </si>
   <si>
-    <t>0,0</t>
+    <t>0,0,0</t>
   </si>
   <si>
     <t>Water</t>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1208,7 +1208,7 @@
       <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AreaConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AreaConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>vector3</t>
-  </si>
-  <si>
-    <t>EAreaType</t>
   </si>
   <si>
     <t>(list#sep=,),int</t>
@@ -1095,7 +1092,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1157,36 +1154,36 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="2:8">
@@ -1194,22 +1191,22 @@
         <v>1001</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="8">
         <v>3001</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
